--- a/excelOutput/TopCarWashingServices.xlsx
+++ b/excelOutput/TopCarWashingServices.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2019" uniqueCount="548">
   <si>
     <t>Sort By</t>
   </si>
@@ -568,6 +568,1104 @@
   </si>
   <si>
     <t>07942679623</t>
+  </si>
+  <si>
+    <t>287 Ratings</t>
+  </si>
+  <si>
+    <t>07947139382</t>
+  </si>
+  <si>
+    <t>07947139928</t>
+  </si>
+  <si>
+    <t>07947140068</t>
+  </si>
+  <si>
+    <t>106 Ratings</t>
+  </si>
+  <si>
+    <t>07947140268</t>
+  </si>
+  <si>
+    <t>07947140435</t>
+  </si>
+  <si>
+    <t>223 Ratings</t>
+  </si>
+  <si>
+    <t>07947118011</t>
+  </si>
+  <si>
+    <t>165 Ratings</t>
+  </si>
+  <si>
+    <t>07947417469</t>
+  </si>
+  <si>
+    <t>75 Ratings</t>
+  </si>
+  <si>
+    <t>07947417066</t>
+  </si>
+  <si>
+    <t>07947140377</t>
+  </si>
+  <si>
+    <t>Vijay Water Wash</t>
+  </si>
+  <si>
+    <t>126 Ratings</t>
+  </si>
+  <si>
+    <t>07947118261</t>
+  </si>
+  <si>
+    <t>07947119441</t>
+  </si>
+  <si>
+    <t>07947119393</t>
+  </si>
+  <si>
+    <t>07947119169</t>
+  </si>
+  <si>
+    <t>07947119089</t>
+  </si>
+  <si>
+    <t>07947419103</t>
+  </si>
+  <si>
+    <t>108 Ratings</t>
+  </si>
+  <si>
+    <t>07947117799</t>
+  </si>
+  <si>
+    <t>348 Ratings</t>
+  </si>
+  <si>
+    <t>07947139770</t>
+  </si>
+  <si>
+    <t>07947140215</t>
+  </si>
+  <si>
+    <t>07947151274</t>
+  </si>
+  <si>
+    <t>07947140960</t>
+  </si>
+  <si>
+    <t>07947152101</t>
+  </si>
+  <si>
+    <t>07947152594</t>
+  </si>
+  <si>
+    <t>07947152856</t>
+  </si>
+  <si>
+    <t>07942685729</t>
+  </si>
+  <si>
+    <t>07942685843</t>
+  </si>
+  <si>
+    <t>07947412607</t>
+  </si>
+  <si>
+    <t>07942685944</t>
+  </si>
+  <si>
+    <t>07942686147</t>
+  </si>
+  <si>
+    <t>07947424610</t>
+  </si>
+  <si>
+    <t>07947425073</t>
+  </si>
+  <si>
+    <t>07947425180</t>
+  </si>
+  <si>
+    <t>07947429438</t>
+  </si>
+  <si>
+    <t>07947429375</t>
+  </si>
+  <si>
+    <t>07947114600</t>
+  </si>
+  <si>
+    <t>07947114895</t>
+  </si>
+  <si>
+    <t>07947114708</t>
+  </si>
+  <si>
+    <t>07947115117</t>
+  </si>
+  <si>
+    <t>07947115380</t>
+  </si>
+  <si>
+    <t>07947123590</t>
+  </si>
+  <si>
+    <t>07947123911</t>
+  </si>
+  <si>
+    <t>07947124107</t>
+  </si>
+  <si>
+    <t>07947124826</t>
+  </si>
+  <si>
+    <t>Avs Auto Studeos</t>
+  </si>
+  <si>
+    <t>07947126568</t>
+  </si>
+  <si>
+    <t>Royal Car Wash</t>
+  </si>
+  <si>
+    <t>597 Ratings</t>
+  </si>
+  <si>
+    <t>07947126366</t>
+  </si>
+  <si>
+    <t>Clean Cars Auto Detailing Studio</t>
+  </si>
+  <si>
+    <t>203 Ratings</t>
+  </si>
+  <si>
+    <t>07947127134</t>
+  </si>
+  <si>
+    <t>143 Ratings</t>
+  </si>
+  <si>
+    <t>07947127024</t>
+  </si>
+  <si>
+    <t>Autolux Mobile Car Spa</t>
+  </si>
+  <si>
+    <t>86 Ratings</t>
+  </si>
+  <si>
+    <t>07947127391</t>
+  </si>
+  <si>
+    <t>07947141838</t>
+  </si>
+  <si>
+    <t>07942677721</t>
+  </si>
+  <si>
+    <t>07942677828</t>
+  </si>
+  <si>
+    <t>07947142766</t>
+  </si>
+  <si>
+    <t>07947143119</t>
+  </si>
+  <si>
+    <t>07947412244</t>
+  </si>
+  <si>
+    <t>07942685677</t>
+  </si>
+  <si>
+    <t>07942686006</t>
+  </si>
+  <si>
+    <t>07942686308</t>
+  </si>
+  <si>
+    <t>07942686350</t>
+  </si>
+  <si>
+    <t>07947413321</t>
+  </si>
+  <si>
+    <t>07942687332</t>
+  </si>
+  <si>
+    <t>07942687436</t>
+  </si>
+  <si>
+    <t>07942687648</t>
+  </si>
+  <si>
+    <t>07942687806</t>
+  </si>
+  <si>
+    <t>07947111666</t>
+  </si>
+  <si>
+    <t>07947425916</t>
+  </si>
+  <si>
+    <t>07947426426</t>
+  </si>
+  <si>
+    <t>07947426557</t>
+  </si>
+  <si>
+    <t>07947426859</t>
+  </si>
+  <si>
+    <t>07947141426</t>
+  </si>
+  <si>
+    <t>164 Ratings</t>
+  </si>
+  <si>
+    <t>07942677775</t>
+  </si>
+  <si>
+    <t>Petromin Express</t>
+  </si>
+  <si>
+    <t>101 Ratings</t>
+  </si>
+  <si>
+    <t>07942677752</t>
+  </si>
+  <si>
+    <t>07942686668</t>
+  </si>
+  <si>
+    <t>07947426559</t>
+  </si>
+  <si>
+    <t>07947426622</t>
+  </si>
+  <si>
+    <t>07947426826</t>
+  </si>
+  <si>
+    <t>07947427057</t>
+  </si>
+  <si>
+    <t>07947427277</t>
+  </si>
+  <si>
+    <t>07947433300</t>
+  </si>
+  <si>
+    <t>07947434621</t>
+  </si>
+  <si>
+    <t>07947435648</t>
+  </si>
+  <si>
+    <t>07947435518</t>
+  </si>
+  <si>
+    <t>07947422850</t>
+  </si>
+  <si>
+    <t>07942694897</t>
+  </si>
+  <si>
+    <t>07942695084</t>
+  </si>
+  <si>
+    <t>07942695249</t>
+  </si>
+  <si>
+    <t>07942695381</t>
+  </si>
+  <si>
+    <t>07942695527</t>
+  </si>
+  <si>
+    <t>07947124117</t>
+  </si>
+  <si>
+    <t>07947434157</t>
+  </si>
+  <si>
+    <t>07947434225</t>
+  </si>
+  <si>
+    <t>07947126289</t>
+  </si>
+  <si>
+    <t>07947434367</t>
+  </si>
+  <si>
+    <t>07947434173</t>
+  </si>
+  <si>
+    <t>07942682854</t>
+  </si>
+  <si>
+    <t>07942682996</t>
+  </si>
+  <si>
+    <t>07947435010</t>
+  </si>
+  <si>
+    <t>07947144052</t>
+  </si>
+  <si>
+    <t>07947149044</t>
+  </si>
+  <si>
+    <t>07942683632</t>
+  </si>
+  <si>
+    <t>07947133841</t>
+  </si>
+  <si>
+    <t>07947132357</t>
+  </si>
+  <si>
+    <t>07942683997</t>
+  </si>
+  <si>
+    <t>07947150477</t>
+  </si>
+  <si>
+    <t>07947150738</t>
+  </si>
+  <si>
+    <t>07947150852</t>
+  </si>
+  <si>
+    <t>07942684462</t>
+  </si>
+  <si>
+    <t>07947135732</t>
+  </si>
+  <si>
+    <t>07947112146</t>
+  </si>
+  <si>
+    <t>07947112668</t>
+  </si>
+  <si>
+    <t>07947112325</t>
+  </si>
+  <si>
+    <t>07947112494</t>
+  </si>
+  <si>
+    <t>07947113084</t>
+  </si>
+  <si>
+    <t>07947121256</t>
+  </si>
+  <si>
+    <t>07947120981</t>
+  </si>
+  <si>
+    <t>07947121230</t>
+  </si>
+  <si>
+    <t>07947122033</t>
+  </si>
+  <si>
+    <t>07947121964</t>
+  </si>
+  <si>
+    <t>07947125679</t>
+  </si>
+  <si>
+    <t>07947125825</t>
+  </si>
+  <si>
+    <t>07947125644</t>
+  </si>
+  <si>
+    <t>07947125649</t>
+  </si>
+  <si>
+    <t>07947126259</t>
+  </si>
+  <si>
+    <t>07947134436</t>
+  </si>
+  <si>
+    <t>07947134429</t>
+  </si>
+  <si>
+    <t>07947134502</t>
+  </si>
+  <si>
+    <t>07947134802</t>
+  </si>
+  <si>
+    <t>07947134940</t>
+  </si>
+  <si>
+    <t>07947143143</t>
+  </si>
+  <si>
+    <t>07947143225</t>
+  </si>
+  <si>
+    <t>07947411259</t>
+  </si>
+  <si>
+    <t>07942678618</t>
+  </si>
+  <si>
+    <t>07942678577</t>
+  </si>
+  <si>
+    <t>Vinodh Water Wash</t>
+  </si>
+  <si>
+    <t>07947112065</t>
+  </si>
+  <si>
+    <t>07947112179</t>
+  </si>
+  <si>
+    <t>Vinodh Foam Wash</t>
+  </si>
+  <si>
+    <t>253 Ratings</t>
+  </si>
+  <si>
+    <t>07947424175</t>
+  </si>
+  <si>
+    <t>07947111721</t>
+  </si>
+  <si>
+    <t>123 Ratings</t>
+  </si>
+  <si>
+    <t>07947112219</t>
+  </si>
+  <si>
+    <t>07947114918</t>
+  </si>
+  <si>
+    <t>07947115140</t>
+  </si>
+  <si>
+    <t>07947114715</t>
+  </si>
+  <si>
+    <t>07947115317</t>
+  </si>
+  <si>
+    <t>07947115421</t>
+  </si>
+  <si>
+    <t>07947123258</t>
+  </si>
+  <si>
+    <t>07947122982</t>
+  </si>
+  <si>
+    <t>07947122769</t>
+  </si>
+  <si>
+    <t>Perfect Car Detailing</t>
+  </si>
+  <si>
+    <t>63 Ratings</t>
+  </si>
+  <si>
+    <t>07947122681</t>
+  </si>
+  <si>
+    <t>07947123063</t>
+  </si>
+  <si>
+    <t>07942694689</t>
+  </si>
+  <si>
+    <t>07942694895</t>
+  </si>
+  <si>
+    <t>07942695028</t>
+  </si>
+  <si>
+    <t>07942695214</t>
+  </si>
+  <si>
+    <t>07942695298</t>
+  </si>
+  <si>
+    <t>G L Motors</t>
+  </si>
+  <si>
+    <t>397 Ratings</t>
+  </si>
+  <si>
+    <t>07947132259</t>
+  </si>
+  <si>
+    <t>V P Car Mugile Auto Spa</t>
+  </si>
+  <si>
+    <t>260 Ratings</t>
+  </si>
+  <si>
+    <t>07942683320</t>
+  </si>
+  <si>
+    <t>Car O Care</t>
+  </si>
+  <si>
+    <t>128 Ratings</t>
+  </si>
+  <si>
+    <t>07947132534</t>
+  </si>
+  <si>
+    <t>219 Ratings</t>
+  </si>
+  <si>
+    <t>Show Number</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>07947152990</t>
+  </si>
+  <si>
+    <t>07947137197</t>
+  </si>
+  <si>
+    <t>07947137416</t>
+  </si>
+  <si>
+    <t>GREAT MAGNUM AUTOZSPA</t>
+  </si>
+  <si>
+    <t>07947137918</t>
+  </si>
+  <si>
+    <t>07947122940</t>
+  </si>
+  <si>
+    <t>07947122540</t>
+  </si>
+  <si>
+    <t>07947123303</t>
+  </si>
+  <si>
+    <t>07947123395</t>
+  </si>
+  <si>
+    <t>07947123860</t>
+  </si>
+  <si>
+    <t>07947132581</t>
+  </si>
+  <si>
+    <t>07942677272</t>
+  </si>
+  <si>
+    <t>07947133416</t>
+  </si>
+  <si>
+    <t>07947133178</t>
+  </si>
+  <si>
+    <t>07942678949</t>
+  </si>
+  <si>
+    <t>07942679051</t>
+  </si>
+  <si>
+    <t>07947411799</t>
+  </si>
+  <si>
+    <t>07942685777</t>
+  </si>
+  <si>
+    <t>07947429771</t>
+  </si>
+  <si>
+    <t>07947149918</t>
+  </si>
+  <si>
+    <t>07947152026</t>
+  </si>
+  <si>
+    <t>07947137459</t>
+  </si>
+  <si>
+    <t>07947139347</t>
+  </si>
+  <si>
+    <t>07942695899</t>
+  </si>
+  <si>
+    <t>07942696352</t>
+  </si>
+  <si>
+    <t>07942696273</t>
+  </si>
+  <si>
+    <t>07942696919</t>
+  </si>
+  <si>
+    <t>07947431911</t>
+  </si>
+  <si>
+    <t>07947432101</t>
+  </si>
+  <si>
+    <t>07947123859</t>
+  </si>
+  <si>
+    <t>07947432958</t>
+  </si>
+  <si>
+    <t>07947109554</t>
+  </si>
+  <si>
+    <t>07947105591</t>
+  </si>
+  <si>
+    <t>07942681438</t>
+  </si>
+  <si>
+    <t>07942689453</t>
+  </si>
+  <si>
+    <t>07942689823</t>
+  </si>
+  <si>
+    <t>07947419437</t>
+  </si>
+  <si>
+    <t>07947419668</t>
+  </si>
+  <si>
+    <t>07947419743</t>
+  </si>
+  <si>
+    <t>07947133641</t>
+  </si>
+  <si>
+    <t>07942684354</t>
+  </si>
+  <si>
+    <t>07942684438</t>
+  </si>
+  <si>
+    <t>07942685378</t>
+  </si>
+  <si>
+    <t>07947141215</t>
+  </si>
+  <si>
+    <t>07947415634</t>
+  </si>
+  <si>
+    <t>07947434566</t>
+  </si>
+  <si>
+    <t>07947144529</t>
+  </si>
+  <si>
+    <t>07947144315</t>
+  </si>
+  <si>
+    <t>07942697036</t>
+  </si>
+  <si>
+    <t>07942697159</t>
+  </si>
+  <si>
+    <t>07942697503</t>
+  </si>
+  <si>
+    <t>07947411365</t>
+  </si>
+  <si>
+    <t>07947138920</t>
+  </si>
+  <si>
+    <t>07947139021</t>
+  </si>
+  <si>
+    <t>07942685355</t>
+  </si>
+  <si>
+    <t>07942685525</t>
+  </si>
+  <si>
+    <t>07947414939</t>
+  </si>
+  <si>
+    <t>07947112878</t>
+  </si>
+  <si>
+    <t>07947113105</t>
+  </si>
+  <si>
+    <t>07947113396</t>
+  </si>
+  <si>
+    <t>07942676867</t>
+  </si>
+  <si>
+    <t>07947131521</t>
+  </si>
+  <si>
+    <t>The Detailing Mafia Nandanam</t>
+  </si>
+  <si>
+    <t>356 Ratings</t>
+  </si>
+  <si>
+    <t>07942676984</t>
+  </si>
+  <si>
+    <t>Wee Do Magic Point 3m Foam Wash</t>
+  </si>
+  <si>
+    <t>07947131947</t>
+  </si>
+  <si>
+    <t>5k Car Care Nungambakkam</t>
+  </si>
+  <si>
+    <t>723 Ratings</t>
+  </si>
+  <si>
+    <t>07947124905</t>
+  </si>
+  <si>
+    <t>07942678125</t>
+  </si>
+  <si>
+    <t>07947143037</t>
+  </si>
+  <si>
+    <t>07942678318</t>
+  </si>
+  <si>
+    <t>07947143179</t>
+  </si>
+  <si>
+    <t>07942678491</t>
+  </si>
+  <si>
+    <t>07942685774</t>
+  </si>
+  <si>
+    <t>07942686093</t>
+  </si>
+  <si>
+    <t>07942686345</t>
+  </si>
+  <si>
+    <t>07942686581</t>
+  </si>
+  <si>
+    <t>07942686480</t>
+  </si>
+  <si>
+    <t>07947429407</t>
+  </si>
+  <si>
+    <t>07947432583</t>
+  </si>
+  <si>
+    <t>07947422104</t>
+  </si>
+  <si>
+    <t>07947435157</t>
+  </si>
+  <si>
+    <t>07947147120</t>
+  </si>
+  <si>
+    <t>07942695178</t>
+  </si>
+  <si>
+    <t>07942695591</t>
+  </si>
+  <si>
+    <t>07942695763</t>
+  </si>
+  <si>
+    <t>07942696045</t>
+  </si>
+  <si>
+    <t>07942696323</t>
+  </si>
+  <si>
+    <t>07942698635</t>
+  </si>
+  <si>
+    <t>07942699021</t>
+  </si>
+  <si>
+    <t>07942699195</t>
+  </si>
+  <si>
+    <t>07942699526</t>
+  </si>
+  <si>
+    <t>07942699702</t>
+  </si>
+  <si>
+    <t>07947424147</t>
+  </si>
+  <si>
+    <t>07947424712</t>
+  </si>
+  <si>
+    <t>07947429351</t>
+  </si>
+  <si>
+    <t>07947429489</t>
+  </si>
+  <si>
+    <t>07947429635</t>
+  </si>
+  <si>
+    <t>07947421589</t>
+  </si>
+  <si>
+    <t>07947112338</t>
+  </si>
+  <si>
+    <t>07947112628</t>
+  </si>
+  <si>
+    <t>07947112881</t>
+  </si>
+  <si>
+    <t>288 Ratings</t>
+  </si>
+  <si>
+    <t>07947430653</t>
+  </si>
+  <si>
+    <t>07947146536</t>
+  </si>
+  <si>
+    <t>07947423612</t>
+  </si>
+  <si>
+    <t>07947423732</t>
+  </si>
+  <si>
+    <t>Mr Saravanan</t>
+  </si>
+  <si>
+    <t>07947430633</t>
+  </si>
+  <si>
+    <t>MyTVS</t>
+  </si>
+  <si>
+    <t>12,005 Rating</t>
+  </si>
+  <si>
+    <t>07947427494</t>
+  </si>
+  <si>
+    <t>07947431931</t>
+  </si>
+  <si>
+    <t>07947123547</t>
+  </si>
+  <si>
+    <t>07947432085</t>
+  </si>
+  <si>
+    <t>301 Ratings</t>
+  </si>
+  <si>
+    <t>07947123691</t>
+  </si>
+  <si>
+    <t>07947432400</t>
+  </si>
+  <si>
+    <t>07947433493</t>
+  </si>
+  <si>
+    <t>07947433689</t>
+  </si>
+  <si>
+    <t>07947433816</t>
+  </si>
+  <si>
+    <t>07947434163</t>
+  </si>
+  <si>
+    <t>07947433944</t>
+  </si>
+  <si>
+    <t>07947433607</t>
+  </si>
+  <si>
+    <t>07947126371</t>
+  </si>
+  <si>
+    <t>07947434070</t>
+  </si>
+  <si>
+    <t>07947126126</t>
+  </si>
+  <si>
+    <t>07947434357</t>
+  </si>
+  <si>
+    <t>07947434517</t>
+  </si>
+  <si>
+    <t>07947435625</t>
+  </si>
+  <si>
+    <t>07947435444</t>
+  </si>
+  <si>
+    <t>07947435765</t>
+  </si>
+  <si>
+    <t>07947435509</t>
+  </si>
+  <si>
+    <t>07947435325</t>
+  </si>
+  <si>
+    <t>07947132113</t>
+  </si>
+  <si>
+    <t>1,066 Rating</t>
+  </si>
+  <si>
+    <t>07947132034</t>
+  </si>
+  <si>
+    <t>07947132373</t>
+  </si>
+  <si>
+    <t>239 Ratings</t>
+  </si>
+  <si>
+    <t>07947132628</t>
+  </si>
+  <si>
+    <t>07947132632</t>
+  </si>
+  <si>
+    <t>07947134637</t>
+  </si>
+  <si>
+    <t>07947135089</t>
+  </si>
+  <si>
+    <t>07947135356</t>
+  </si>
+  <si>
+    <t>07947135727</t>
+  </si>
+  <si>
+    <t>07947135537</t>
+  </si>
+  <si>
+    <t>07942677467</t>
+  </si>
+  <si>
+    <t>07942677704</t>
+  </si>
+  <si>
+    <t>07947142079</t>
+  </si>
+  <si>
+    <t>07942677706</t>
+  </si>
+  <si>
+    <t>07942678081</t>
+  </si>
+  <si>
+    <t>07942689712</t>
+  </si>
+  <si>
+    <t>07942690613</t>
+  </si>
+  <si>
+    <t>07942690805</t>
+  </si>
+  <si>
+    <t>07942691428</t>
+  </si>
+  <si>
+    <t>07942680125</t>
+  </si>
+  <si>
+    <t>07947415581</t>
+  </si>
+  <si>
+    <t>07947416387</t>
+  </si>
+  <si>
+    <t>07947416682</t>
+  </si>
+  <si>
+    <t>07947417245</t>
+  </si>
+  <si>
+    <t>07947144799</t>
+  </si>
+  <si>
+    <t>07947145578</t>
+  </si>
+  <si>
+    <t>07947145826</t>
+  </si>
+  <si>
+    <t>07947147246</t>
+  </si>
+  <si>
+    <t>07942682507</t>
+  </si>
+  <si>
+    <t>07942683055</t>
+  </si>
+  <si>
+    <t>07947148489</t>
+  </si>
+  <si>
+    <t>07947132493</t>
+  </si>
+  <si>
+    <t>109 Ratings</t>
+  </si>
+  <si>
+    <t>07942684199</t>
+  </si>
+  <si>
+    <t>07947150113</t>
+  </si>
+  <si>
+    <t>07942684377</t>
+  </si>
+  <si>
+    <t>07942684392</t>
   </si>
 </sst>
 </file>
@@ -899,57 +1997,57 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>28</v>
+        <v>543</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>30</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="C3" t="s" s="0">
-        <v>178</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>35</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>179</v>
+        <v>545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>47</v>
+        <v>241</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>180</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>49</v>
+        <v>243</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>50</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>181</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -1011,7 +2109,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
